--- a/Projects/INBEVTRADMX_SAND/Data/inbevtradmx_template_6.xlsx
+++ b/Projects/INBEVTRADMX_SAND/Data/inbevtradmx_template_6.xlsx
@@ -20,10 +20,6 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">template!$A$1:$V$64</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">template!$A$1:$V$64</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">template!$A$1:$V$64</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">template!$A$1:$V$64</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">template!$A$1:$V$64</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">template!$A$1:$V$64</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">template!$A$1:$V$64</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -304,7 +300,7 @@
     <t xml:space="preserve">Promociones Vigente</t>
   </si>
   <si>
-    <t xml:space="preserve">Set FRIA Modreloramas</t>
+    <t xml:space="preserve">Set FRIA Moderloramas</t>
   </si>
   <si>
     <t xml:space="preserve">MODELORAMA</t>
@@ -696,7 +692,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -746,10 +742,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -844,25 +836,22 @@
   </sheetPr>
   <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="50.8928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.75"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="14" min="4" style="1" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="30.9132653061224"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="142.147959183673"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="37.7959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="1" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="53.4591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="31.9948979591837"/>
+    <col collapsed="false" hidden="false" max="15" min="4" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="32.530612244898"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="1" width="7.4234693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -933,7 +922,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -991,7 +980,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1054,7 +1043,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1117,7 +1106,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1176,7 +1165,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -1235,7 +1224,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1294,7 +1283,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1353,7 +1342,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
@@ -1412,7 +1401,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1479,7 +1468,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1546,7 +1535,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1613,7 +1602,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1680,7 +1669,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>75</v>
       </c>
@@ -1747,7 +1736,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>75</v>
       </c>
@@ -1814,7 +1803,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>75</v>
       </c>
@@ -1877,7 +1866,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>75</v>
       </c>
@@ -1936,7 +1925,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -1995,7 +1984,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>75</v>
       </c>
@@ -2054,7 +2043,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>75</v>
       </c>
@@ -2113,7 +2102,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>75</v>
       </c>
@@ -2180,7 +2169,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>78</v>
       </c>
@@ -2239,7 +2228,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>78</v>
       </c>
@@ -2298,7 +2287,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>78</v>
       </c>
@@ -2365,7 +2354,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>78</v>
       </c>
@@ -2424,7 +2413,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
@@ -2483,7 +2472,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
@@ -2542,7 +2531,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
@@ -2601,7 +2590,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>78</v>
       </c>
@@ -2668,7 +2657,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>78</v>
       </c>
@@ -2731,7 +2720,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>87</v>
       </c>
@@ -2798,7 +2787,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>87</v>
       </c>
@@ -2857,7 +2846,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>87</v>
       </c>
@@ -2916,7 +2905,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>87</v>
       </c>
@@ -2975,7 +2964,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>87</v>
       </c>
@@ -3034,7 +3023,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>87</v>
       </c>
@@ -3101,7 +3090,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>87</v>
       </c>
@@ -4715,7 +4704,7 @@
       <c r="A64" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="7" t="s">
         <v>148</v>
       </c>
       <c r="C64" s="7" t="s">
@@ -4814,7 +4803,7 @@
       <c r="B3" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>154</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -4828,7 +4817,7 @@
       <c r="B4" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>158</v>
       </c>
       <c r="D4" s="1" t="s">
